--- a/data/trans_camb/P54_A_5_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_5_R-Urba-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,32</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,3</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,11</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,16; -4,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,81; -4,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,11; -7,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,2; -6,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,72; -6,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,32; -6,69</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-93,28%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-97,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,47%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; -43,11</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -71,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -83,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -82,27</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,06</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,27</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,06</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,71</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,29; -3,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,96; -3,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,48; -9,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,23; -10,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,64; -7,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,37; -9,01</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-94,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,17 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>-100,0; -69,98</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -78,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-37,12</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-37,12</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,45</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,0</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,94; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,94; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,37; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,68; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,65; -4,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,92; -5,0</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,78</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,57</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,62</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,21</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,39</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,36; -6,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,89; -7,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,8; -9,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,96; -9,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,96; -9,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,05; -9,51</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-97,4%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,18%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,56%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,72%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-98,13%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>-100,0; -82,31</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -84,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -86,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-99,04; -88,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -92,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P54_A_5_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_5_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,295 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-9,06</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-9,72</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-11,32</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-10,43</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-10,3</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-10,11</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-8.937929178982214</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-9.716099099489444</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-11.32145047422755</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-10.27021070684746</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-10.24130172624465</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-9.979814549158718</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-15,16; -4,31</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-15,81; -4,99</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-17,11; -7,06</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-16,2; -6,22</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-14,72; -6,96</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-14,32; -6,69</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-15.23349885973086</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-16.16626790679998</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-17.06429444467047</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-16.26979900115707</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-14.35206547722086</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-14.54228990176392</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-93,28%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-92,11%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-97,17%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-95,47%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-4.577640682452826</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-5.599333882346633</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-7.057493841221069</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-5.590954735265164</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-7.001724816305208</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-6.47067643777704</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -43,11</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -71,46</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -83,52</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -82,27</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.9199092235948765</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.907146193875673</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.9666548834650224</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.9419736599789639</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-8,4</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-8,4</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-15,06</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-16,27</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-12,06</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-12,71</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="inlineStr"/>
+      <c r="F8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-16,29; -3,71</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-15,96; -3,54</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-22,48; -9,59</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-23,23; -10,86</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-16,64; -7,82</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-18,37; -9,01</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>-0.3652274815434317</v>
+      </c>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="inlineStr"/>
+      <c r="F9" s="6" t="n">
+        <v>-0.617698577148216</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>-0.8411087088571565</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.7783883805765449</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-92,55%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-94,83%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-8.399292391216866</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-8.399292391216866</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-14.94445487506247</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-16.26879762806396</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-11.95271431411383</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-12.71424704471831</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -69,98</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -78,87</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-16.166890143247</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-17.01664812414804</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-21.9044606751853</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-23.22516909003847</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-16.66383942355772</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-17.2542164392524</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-37,12</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-37,12</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-7,45</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-7,45</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-22,0</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-22,0</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-3.590186445105135</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-3.877870865105541</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-9.274137903840469</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-10.85645099259881</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-7.711360089744362</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-8.628777813812622</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-75,94; 0,0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-75,94; 0,0</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-23,37; 0,0</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-24,68; 0,0</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-57,65; -4,83</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-56,92; -5,0</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.9185961505405303</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.9401039850864916</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr"/>
+      <c r="D14" s="6" t="inlineStr"/>
+      <c r="E14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="6" t="inlineStr"/>
+      <c r="G14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr"/>
+      <c r="D15" s="6" t="inlineStr"/>
+      <c r="E15" s="6" t="n">
+        <v>-0.7059695868553272</v>
+      </c>
+      <c r="F15" s="6" t="inlineStr"/>
+      <c r="G15" s="6" t="n">
+        <v>-0.7183350877626491</v>
+      </c>
+      <c r="H15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,153 +904,289 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-11,78</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-12,09</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-12,57</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-12,62</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-12,21</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-12,39</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-37.11644613474744</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-37.11644613474744</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-7.454208996180387</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-7.454208996180387</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-21.99723108151136</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-21.99723108151136</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-22,36; -6,92</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-21,89; -7,12</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-16,8; -9,18</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-16,96; -9,13</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-16,96; -9,33</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-17,05; -9,51</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-79.06541832668785</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-75.39840102110489</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-23.56520998087633</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-23.02092221526128</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-56.77640533296648</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-56.22008503933158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-97,4%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-96,18%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-96,56%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-96,72%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>-98,13%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>-4.947068819556816</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>-5.003668915079899</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -82,31</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -84,4</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -86,27</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>-99,04; -88,9</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -92,23</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="inlineStr"/>
+      <c r="E20" s="6" t="inlineStr"/>
+      <c r="F20" s="6" t="inlineStr"/>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="inlineStr"/>
+      <c r="E21" s="6" t="inlineStr"/>
+      <c r="F21" s="6" t="inlineStr"/>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-11.70191785274569</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-12.0923110551999</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-12.50910844838947</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-12.52361549873664</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-12.1394048133589</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-12.3246128334552</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-23.36582918413456</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-23.27723586371371</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-16.98890373533218</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-16.75954630052231</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-16.60310909827826</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-17.09744797699917</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-6.79317171662408</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-7.580160907600416</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-9.188305477606507</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>-9.180333194170862</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>-9.272038198285552</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-9.208852438815741</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.9677155838390104</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.9570498130978112</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>-0.958159721919902</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>-0.9615830985850363</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>-0.9762537438584371</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D26" s="6" t="inlineStr"/>
+      <c r="E26" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>-0.9904179336223659</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>-0.7333183834485285</v>
+      </c>
+      <c r="D27" s="6" t="inlineStr"/>
+      <c r="E27" s="6" t="n">
+        <v>-0.8603415413138016</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>-0.8577937603153513</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>-0.8914035908413208</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>-0.9082780293431261</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1221,14 +1194,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
